--- a/tut05/output/0401CS32.xlsx
+++ b/tut05/output/0401CS32.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.612244897959184</v>
+        <v>6.61</v>
       </c>
       <c r="C6" t="n">
-        <v>5.636363636363637</v>
+        <v>5.64</v>
       </c>
       <c r="D6" t="n">
-        <v>6.13953488372093</v>
+        <v>6.14</v>
       </c>
       <c r="E6" t="n">
-        <v>5.914893617021277</v>
+        <v>5.91</v>
       </c>
       <c r="F6" t="n">
-        <v>6.166666666666667</v>
+        <v>6.17</v>
       </c>
       <c r="G6" t="n">
-        <v>5.925</v>
+        <v>5.92</v>
       </c>
       <c r="H6" t="n">
-        <v>7.439024390243903</v>
+        <v>7.44</v>
       </c>
       <c r="I6" t="n">
         <v>7.4</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.612244897959184</v>
+        <v>6.61</v>
       </c>
       <c r="C8" t="n">
-        <v>6.150537634408602</v>
+        <v>6.15</v>
       </c>
       <c r="D8" t="n">
-        <v>6.147058823529412</v>
+        <v>6.15</v>
       </c>
       <c r="E8" t="n">
-        <v>6.087431693989071</v>
+        <v>6.09</v>
       </c>
       <c r="F8" t="n">
-        <v>6.102222222222222</v>
+        <v>6.1</v>
       </c>
       <c r="G8" t="n">
-        <v>6.075471698113208</v>
+        <v>6.08</v>
       </c>
       <c r="H8" t="n">
-        <v>6.258169934640523</v>
+        <v>6.26</v>
       </c>
       <c r="I8" t="n">
-        <v>6.390173410404624</v>
+        <v>6.39</v>
       </c>
     </row>
   </sheetData>
